--- a/collective_inovice_info.xlsx
+++ b/collective_inovice_info.xlsx
@@ -506,32 +506,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25952000000100944577</t>
+          <t>25957200000017119130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025年05月22日</t>
+          <t>2025年06月07日</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>深圳到手飞航 模科技有限公司</t>
+          <t>深圳市中顺新能电池有限公司</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91440300MA5EHDQ10F</t>
+          <t>91440300075834907D</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>*电子元件*飞控模块</t>
+          <t>*蓄电池*中顺芯 弹射玩具电动工具赛车船航模型3S动力聚合物锂电池组1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pixhawk6Cmini+PM06</t>
+          <t>702030x3S/15C-300mAh</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -539,25 +539,29 @@
           <t>个</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>811.88118811881</t>
+          <t>33.28495575</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>811.8</t>
+          <t>166.42</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>21.64</t>
         </is>
       </c>
     </row>

--- a/collective_inovice_info.xlsx
+++ b/collective_inovice_info.xlsx
@@ -506,52 +506,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25957200000017119130</t>
+          <t>25337000000118151250</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025年06月07日</t>
+          <t>2025年03月18日</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>深圳市中顺新能电池有限公司</t>
+          <t>名称：杭州昊超电子商务有限公司</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91440300075834907D</t>
+          <t>统一社会信用代码/纳税人识别号:91330110MA2AYXC793</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>*蓄电池*中顺芯 弹射玩具电动工具赛车船航模型3S动力聚合物锂电池组1</t>
+          <t>*文具*三菱uni黑科技AIR直液式签字笔UBA-188中性笔0.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>702030x3S/15C-300mAh</t>
+          <t>5112340119312</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>件</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>33.28495575</t>
+          <t>44.87</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>166.42</t>
+          <t>44.87</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>5.83</t>
         </is>
       </c>
     </row>
